--- a/scripts/data/sect_config_Table.xlsx
+++ b/scripts/data/sect_config_Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A6966BF-8DDD-43D6-B249-28EB5F1243C4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@宗门配置表#sect_config_Table" sheetId="1" r:id="rId1"/>
@@ -45,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>420.0;0.0;260.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sectName[.][str]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,13 +79,17 @@
   </si>
   <si>
     <t>0.0;45.0;0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>174.0;22.0;137.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,16 +441,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -460,16 +461,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -480,16 +481,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">

--- a/scripts/data/sect_config_Table.xlsx
+++ b/scripts/data/sect_config_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A6966BF-8DDD-43D6-B249-28EB5F1243C4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C970DE3-E65F-4C3E-B4B4-8E633A697C01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>90.0;0.0;90.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gateDir[.][pos3D]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>174.0;22.0;137.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.0;22.0;90.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,7 +450,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -467,10 +467,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -484,13 +484,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">

--- a/scripts/data/sect_config_Table.xlsx
+++ b/scripts/data/sect_config_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C970DE3-E65F-4C3E-B4B4-8E633A697C01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E285AAA3-9B82-4BB9-B215-9436896B9358}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id[!][int]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>90.0;22.0;90.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description[.][str]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云灵宗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -431,9 +443,10 @@
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +465,11 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -472,8 +488,11 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -492,13 +511,17 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D4" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
